--- a/content/lista szczytów.xlsx
+++ b/content/lista szczytów.xlsx
@@ -340,10 +340,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -647,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,10 +811,10 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>945</v>
       </c>
       <c r="E11" t="s">
